--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2182283.592495914</v>
+        <v>-2185002.993640161</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8312874397851</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>111.0769871918662</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>259.4738383681837</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>129.4388943593368</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2462579602014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.3469022807402</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>226.1888180278238</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>99.88669024290725</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>10.12799412870886</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>398.6021510141596</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>249.1300378910313</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -1339,19 +1339,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.2852327304482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>76.3355501936345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>223.6233581343933</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>52.91369288257724</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>205.5383435306682</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>35.6665036611733</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2959,13 +2959,13 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652579</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.4794605262077</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="C2" t="n">
-        <v>567.5169435857961</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="D2" t="n">
-        <v>567.5169435857961</v>
+        <v>1264.279064919766</v>
       </c>
       <c r="E2" t="n">
-        <v>567.5169435857961</v>
+        <v>878.4908123215214</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>467.5049075319138</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1713.218632566141</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1713.218632566141</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1713.218632566141</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y2" t="n">
-        <v>1323.079300590329</v>
+        <v>1622.544763526516</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>114.543262603435</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>299.264883884485</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>957.2304598751768</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925521</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.3634259803388</v>
+        <v>1739.734756450701</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>1570.798573522794</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>1420.681934110458</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1272.768840528065</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>2431.592970461431</v>
       </c>
       <c r="V4" t="n">
-        <v>673.0360657270445</v>
+        <v>2431.592970461431</v>
       </c>
       <c r="W4" t="n">
-        <v>429.3529768783562</v>
+        <v>2142.175800424471</v>
       </c>
       <c r="X4" t="n">
-        <v>201.3634259803388</v>
+        <v>2142.175800424471</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.3634259803388</v>
+        <v>1921.38322128094</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1373.778212738966</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="C5" t="n">
-        <v>1373.778212738966</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>1015.512514132215</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.512514132215</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.243971000046</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1373.778212738966</v>
+        <v>1602.816851357233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373.778212738966</v>
+        <v>1212.677519381421</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>821.9680821844935</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.8067472977393</v>
+        <v>932.6070201144361</v>
       </c>
       <c r="C7" t="n">
-        <v>603.8705643698324</v>
+        <v>763.6708371865292</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1626.215822974791</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1403.237342169527</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1403.237342169527</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1403.237342169527</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>1403.237342169527</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X7" t="n">
-        <v>1175.247791271509</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.4552121279791</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.784838233996</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>453.8752219358411</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2310.692825479922</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2310.692825479922</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1957.924170209807</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1957.924170209807</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1567.784838233996</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081663</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.9516006271326</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0154176992257</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
@@ -4987,25 +4987,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1115.73373066868</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1115.73373066868</v>
+        <v>1456.756097232873</v>
       </c>
       <c r="V10" t="n">
-        <v>1115.73373066868</v>
+        <v>1456.756097232873</v>
       </c>
       <c r="W10" t="n">
-        <v>1115.73373066868</v>
+        <v>1167.338927195912</v>
       </c>
       <c r="X10" t="n">
-        <v>887.7441797706628</v>
+        <v>939.3493762978951</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.9516006271326</v>
+        <v>718.556797154365</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5115,16 +5115,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
         <v>1344.266747951537</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1380.253191019954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121936</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.706650960524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>3475.706650960524</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4027.616381199811</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2407.960931088798</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.359466111739</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,28 +6403,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,22 +7093,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311314</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384012</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,22 +7351,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380738</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311333</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7740,10 +7740,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,34 +7804,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883066889</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>129.7511347056862</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>105.1672460959149</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460942</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>73.66059580999718</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.379418847171514e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>325.9515015691439</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.0447583019263</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>300.4707155810878</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>45.27674037638957</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>62.89964020219767</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>233.6093054540138</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>80.64613085857593</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>112.9489693570391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26326,34 +26326,34 @@
         <v>60535.99497675045</v>
       </c>
       <c r="G2" t="n">
+        <v>60535.99497675045</v>
+      </c>
+      <c r="H2" t="n">
         <v>60535.99497675044</v>
       </c>
-      <c r="H2" t="n">
-        <v>60535.99497675043</v>
-      </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36246.77703493721</v>
+        <v>36246.7770349372</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,16 +26424,16 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732009</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732009</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26442,22 +26442,22 @@
         <v>16108.17168982545</v>
       </c>
       <c r="K4" t="n">
+        <v>16108.17168982547</v>
+      </c>
+      <c r="L4" t="n">
         <v>16108.17168982545</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>16108.17168982546</v>
       </c>
-      <c r="M4" t="n">
-        <v>16108.17168982545</v>
-      </c>
       <c r="N4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="O4" t="n">
         <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1195244.966308546</v>
+        <v>-1195674.525175136</v>
       </c>
       <c r="C6" t="n">
         <v>-165677.6399618872</v>
@@ -26528,40 +26528,40 @@
         <v>-165677.6399618872</v>
       </c>
       <c r="E6" t="n">
-        <v>-556189.2888984345</v>
+        <v>-556224.0268238701</v>
       </c>
       <c r="F6" t="n">
-        <v>-48703.84727388863</v>
+        <v>-48738.58519932433</v>
       </c>
       <c r="G6" t="n">
-        <v>-48703.84727388868</v>
+        <v>-48738.58519932433</v>
       </c>
       <c r="H6" t="n">
-        <v>-48703.84727388869</v>
+        <v>-48738.58519932438</v>
       </c>
       <c r="I6" t="n">
-        <v>-48703.84727388863</v>
+        <v>-48738.58519932433</v>
       </c>
       <c r="J6" t="n">
-        <v>-244727.0506075339</v>
+        <v>-244727.050607534</v>
       </c>
       <c r="K6" t="n">
-        <v>-57694.15480391965</v>
+        <v>-57694.15480391966</v>
       </c>
       <c r="L6" t="n">
-        <v>-57694.15480391961</v>
+        <v>-57694.1548039196</v>
       </c>
       <c r="M6" t="n">
         <v>-190301.4485328463</v>
       </c>
       <c r="N6" t="n">
-        <v>-57694.15480391961</v>
+        <v>-57694.15480391958</v>
       </c>
       <c r="O6" t="n">
         <v>-77121.87279755136</v>
       </c>
       <c r="P6" t="n">
-        <v>-57694.15480391953</v>
+        <v>-57694.15480391958</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.32139020186366</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.27842010195121</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>156.7882597618638</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.5291434609713</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>143.5422826506453</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>48.72878277530511</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5344662330286</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>12.94555175879441</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27907,19 +27907,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>1.915212237430751</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>1.463463266763739</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>209.8916039275661</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>144.2373595085334</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>347.4623967873087</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>63.93583437922414</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>465.1758167018091</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>402.8476067337651</v>
       </c>
       <c r="M6" t="n">
         <v>640.5848321000389</v>
@@ -35027,7 +35027,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839444</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
+        <v>366.9313322820406</v>
+      </c>
+      <c r="N9" t="n">
+        <v>464.8576954028712</v>
+      </c>
+      <c r="O9" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="N9" t="n">
-        <v>391.197099592874</v>
-      </c>
-      <c r="O9" t="n">
-        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193518</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>6.395920534174449</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663299</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35963,22 +35963,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>208.9080170074345</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,7 +38190,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
